--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1928.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1928.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.925680453939216</v>
+        <v>0.7289664745330811</v>
       </c>
       <c r="B1">
-        <v>3.656737250323061</v>
+        <v>0.5737303495407104</v>
       </c>
       <c r="C1">
-        <v>1.952302195024734</v>
+        <v>4.71602725982666</v>
       </c>
       <c r="D1">
-        <v>1.387471098882882</v>
+        <v>2.82428765296936</v>
       </c>
       <c r="E1">
-        <v>1.188682285721448</v>
+        <v>1.207239985466003</v>
       </c>
     </row>
   </sheetData>
